--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -84,7 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines the SNOMED CT codes for conditions or risk factors relevant to stroke, including an option for unknown status.</t>
+    <t>This ValueSet enumerates SNOMED CT disorder concepts representing **pre-existing or concurrent conditions** that increase stroke risk.
+**Primary use-case**
+- Required binding to `Condition.code` in `StrokeRiskFactorConditionProfile`, used to maintain a structured problem list supporting:
+  - etiologic reasoning (e.g., cardioembolic risk),
+  - clinical decision support (e.g., anticoagulation considerations),
+  - quality reporting and research cohort definition.
+**Modeling notes**
+- This ValueSet is for *previously documented conditions* (problems), not for “risk factor unknown”.
+  If a risk factor assessment is unknown/not assessed, represent that as an Observation (status/result) or use `dataAbsentReason` patterns rather than a Condition with an “Unknown” code.
+- The acute stroke event itself should be represented by `StrokeDiagnosisConditionProfile`, not by this risk factor profile.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-stroke-risk-factor-vs.xlsx
+++ b/ValueSet-stroke-risk-factor-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Property</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Cerebrovascular accident (disorder)</t>
+  </si>
+  <si>
+    <t>77176002</t>
+  </si>
+  <si>
+    <t>Smoker (finding)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -565,18 +571,26 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
